--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Nataly Caro.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Nataly Caro.xlsx
@@ -128,7 +128,7 @@
     <t xml:space="preserve">27/11/2024 18:56</t>
   </si>
   <si>
-    <t xml:space="preserve">Carlos Arevalo</t>
+    <t xml:space="preserve">Carlitos Arevalo</t>
   </si>
   <si>
     <t xml:space="preserve">Corte caballero</t>
@@ -1262,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>4081</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>23919</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="L19"/>
     </row>
